--- a/6vleadacidsolar.xlsx
+++ b/6vleadacidsolar.xlsx
@@ -191,7 +191,7 @@
     <t>B6B-XH-A</t>
   </si>
   <si>
-    <t>J5..J7</t>
+    <t>J5-J7</t>
   </si>
   <si>
     <t>CONN, HDR, SHROUDED, 3 CKT, 2.5MM PITCH</t>
@@ -353,6 +353,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -374,6 +375,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,7 +449,7 @@
   <dimension ref="A2:I28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/6vleadacidsolar.xlsx
+++ b/6vleadacidsolar.xlsx
@@ -56,7 +56,7 @@
     <t>UNITED CHEMI-CON</t>
   </si>
   <si>
-    <t>EMZJ160ADR471MHA0G</t>
+    <t>EMZJ160ADA471MHA0G</t>
   </si>
   <si>
     <t>Digi-Key, Mouser</t>
@@ -449,7 +449,7 @@
   <dimension ref="A2:I28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
